--- a/biology/Botanique/Boletus_vermiculosus/Boletus_vermiculosus.xlsx
+++ b/biology/Botanique/Boletus_vermiculosus/Boletus_vermiculosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus vermiculosus, de son nom vernaculaire le Bolet vermiculé, est un champignon d'Amérique du Nord du genre Boletus dans la famille des Boletaceae. Ce bolet non comestible se caractérise bien par son chapeau brun grisâtre, brun orangé à brun rougeâtre, ses tubes brun-rouge ou brun foncé au début et le bleuissement de toutes ses parties au contact. Il est fort proche par sa morphologie du Boletus luridus d'Europe dont il paraît fort proche phylogénétiquement.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau a de 4-15 cm de diamètre, convexe puis largement convexe. 
 Cuticule : sèche, finement veloutée, tomenteuse, puis glabre avec l'âge, brun foncé ou brun olivacé au début, pâlissant rapidement à jaune brunâtre, bleuissant au froissement.
@@ -549,7 +563,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dispersé ou grégaire ; sous chênes et hêtres ; très rare.
 </t>
@@ -580,7 +596,9 @@
           <t>Saison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fin-juillet à mi-septembre
 </t>
@@ -611,7 +629,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Non recommandé 
 </t>
@@ -642,7 +662,9 @@
           <t>Variété</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus vermiculosoides diffère par sa taille plus grande, son chapeau et son pied de coloration plus terne, jaune brunâtre à mi-développement, et par ses spores plus étroites.
 </t>
